--- a/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale20/R30/Intermodal_EGS_data_dynamic_exponential_scale20_table55.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale20/R30/Intermodal_EGS_data_dynamic_exponential_scale20_table55.xlsx
@@ -6519,7 +6519,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[179, 180]</t>
+          <t>[179, 186]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[179, 180]</t>
+          <t>[179, 186]</t>
         </is>
       </c>
       <c r="G3" t="n">
